--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\main.netbeans-developer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{910D9EDB-B62C-4C38-B31C-F6CCD6364309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA57E88E-4652-47FC-8F02-CC8AD1D53E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8" yWindow="8" windowWidth="21585" windowHeight="13665" xr2:uid="{F51B4342-0767-4E85-B546-7652CEAD3F88}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>git branch -r</t>
   </si>
@@ -49,6 +49,27 @@
   </si>
   <si>
     <t>same laptob and git</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>veiw folder changef</t>
+  </si>
+  <si>
+    <t>add file</t>
+  </si>
+  <si>
+    <t>git commit -m "Newcmmit"</t>
+  </si>
+  <si>
+    <t>git push origin branchname</t>
+  </si>
+  <si>
+    <t>add to github</t>
   </si>
 </sst>
 </file>
@@ -99,12 +120,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,52 +441,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDE5CA0-302B-45B1-A969-4523B319D776}">
-  <dimension ref="E6:H10"/>
+  <dimension ref="E6:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E17" sqref="E17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="9.06640625" customWidth="1"/>
+    <col min="5" max="5" width="26.265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="6" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\main.netbeans-developer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA57E88E-4652-47FC-8F02-CC8AD1D53E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2865504-F120-410F-9EB9-A745B393D9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8" yWindow="8" windowWidth="21585" windowHeight="13665" xr2:uid="{F51B4342-0767-4E85-B546-7652CEAD3F88}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>git branch -r</t>
   </si>
@@ -70,6 +70,30 @@
   </si>
   <si>
     <t>add to github</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when create folder and init this </t>
+  </si>
+  <si>
+    <t>frist</t>
+  </si>
+  <si>
+    <t>Switch to branch that you want to create new branch it</t>
+  </si>
+  <si>
+    <t>secend</t>
+  </si>
+  <si>
+    <t>push this branch to github -</t>
+  </si>
+  <si>
+    <t>in git hub copy all to new branck</t>
+  </si>
+  <si>
+    <t>and git switch to origin main</t>
+  </si>
+  <si>
+    <t>and create branch and checkout it</t>
   </si>
 </sst>
 </file>
@@ -94,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +128,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -120,13 +150,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,106 +478,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDE5CA0-302B-45B1-A969-4523B319D776}">
-  <dimension ref="E6:H17"/>
+  <dimension ref="E6:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:H17"/>
+      <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="9.06640625" customWidth="1"/>
-    <col min="5" max="5" width="26.265625" customWidth="1"/>
+    <col min="5" max="5" width="23.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="E6" s="2" t="s">
+    <row r="6" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="G7" s="2" t="s">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="G8" s="2" t="s">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="E10" s="2" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E13" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E14" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E16" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="F21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="17">
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="F21:K21"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F16:G16"/>
@@ -549,6 +667,8 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="E10:H10"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G11:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
